--- a/classfiers/mega/elm/ELM_tanh_results.xlsx
+++ b/classfiers/mega/elm/ELM_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8540772532188842</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.04878048780487804</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8267909066878139</v>
+        <v>0.7992189802534629</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8025751072961373</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7372677595628415</v>
+        <v>0.666919191919192</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7854077253218884</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0196078431372549</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5313510019392372</v>
+        <v>0.7908446163765314</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7844827586206896</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5683060109289617</v>
+        <v>0.8085151904150621</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7974137931034483</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2653061224489796</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3561643835616439</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8047284487565517</v>
+        <v>0.5705882352941177</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8047913275122095</v>
+        <v>0.801328727079458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2002648443992982</v>
+        <v>0.08317698561601002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2529992584787105</v>
+        <v>0.1067257945306726</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6936888255750813</v>
+        <v>0.7272172428516732</v>
       </c>
     </row>
   </sheetData>
